--- a/individual.xlsx
+++ b/individual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FB958A-8A6F-4BFC-B50C-578A597157F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116CEB1B-3EDA-4DB4-AF65-F6955BDC8ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Οδυσσέας</t>
   </si>
   <si>
-    <t>Κομακάκης Πλέμπας</t>
-  </si>
-  <si>
     <t>Γιάννης</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Μάρκος</t>
+  </si>
+  <si>
+    <t>Πλέμπας</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>36916</v>
@@ -455,10 +455,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>37181</v>
@@ -469,10 +469,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>36937</v>
@@ -483,10 +483,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>36896</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>36904</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>36886</v>

--- a/individual.xlsx
+++ b/individual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116CEB1B-3EDA-4DB4-AF65-F6955BDC8ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C6DB67-5E53-42FE-835C-DAAA1783EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,6 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +119,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +403,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>37034</v>
+        <v>36916</v>
       </c>
       <c r="D2">
         <v>1072903</v>
@@ -525,5 +528,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/individual.xlsx
+++ b/individual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C6DB67-5E53-42FE-835C-DAAA1783EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1460A863-F4EA-46CC-8F07-C1D02107322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6144" yWindow="1332" windowWidth="16224" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -119,10 +119,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>36916</v>
       </c>
       <c r="D2">
-        <v>1072903</v>
+        <v>107290304</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -453,7 +453,7 @@
         <v>36916</v>
       </c>
       <c r="D3">
-        <v>1072653</v>
+        <v>107265354</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,7 +467,7 @@
         <v>37181</v>
       </c>
       <c r="D4">
-        <v>1072680</v>
+        <v>107268069</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
         <v>36937</v>
       </c>
       <c r="D5">
-        <v>1072756</v>
+        <v>107275663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>36896</v>
       </c>
       <c r="D6">
-        <v>1072777</v>
+        <v>107277727</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>36904</v>
       </c>
       <c r="D7">
-        <v>1072111</v>
+        <v>107211145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -523,7 +523,7 @@
         <v>36886</v>
       </c>
       <c r="D8">
-        <v>1061234</v>
+        <v>106123465</v>
       </c>
     </row>
   </sheetData>
